--- a/831MarketingAnalytics/Project/Data/Data 1 - June 25, 2024.xlsx
+++ b/831MarketingAnalytics/Project/Data/Data 1 - June 25, 2024.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kolsarc/Dropbox (Personal)/2. Teaching/3. AI &amp; Analytics/Assignments/Data Sets/Parachute/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://queensuca-my.sharepoint.com/personal/24wq24_queensu_ca/Documents/School/831MarketingAnalytics/Project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75094A3F-6136-0040-9948-A97FAC34E55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{75094A3F-6136-0040-9948-A97FAC34E55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83A644D7-87B4-6E42-8493-4F39F41C033B}"/>
   <bookViews>
-    <workbookView xWindow="20780" yWindow="5900" windowWidth="27640" windowHeight="16940" xr2:uid="{AB2CFC10-5FAB-304E-8D0A-D15C856A29D8}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17900" xr2:uid="{AB2CFC10-5FAB-304E-8D0A-D15C856A29D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Parachute - Cross Section" sheetId="1" r:id="rId1"/>
     <sheet name="TU - Panel" sheetId="2" r:id="rId2"/>
     <sheet name="Monthly Wellness and Engagement" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Parachute - Cross Section'!$A$1:$X$201</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2024" uniqueCount="931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2023" uniqueCount="930">
   <si>
     <t>ID</t>
   </si>
@@ -171,9 +174,6 @@
   </si>
   <si>
     <t>43728</t>
-  </si>
-  <si>
-    <t>1200</t>
   </si>
   <si>
     <t>25000.0</t>
@@ -2900,7 +2900,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2934,6 +2934,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -3273,7 +3276,7 @@
   <dimension ref="A1:X201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3602,8 +3605,8 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>44</v>
+      <c r="A5" s="15">
+        <v>1200</v>
       </c>
       <c r="B5" s="5">
         <v>44785</v>
@@ -3615,13 +3618,13 @@
         <v>45111</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="H5" s="8">
         <v>0.28989999999999999</v>
@@ -3633,7 +3636,7 @@
         <v>32370</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>30</v>
@@ -3642,7 +3645,7 @@
         <v>37</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O5" s="6">
         <v>93000</v>
@@ -3677,25 +3680,25 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="5">
         <v>44804</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="H6" s="8">
         <v>0.27989999999999998</v>
@@ -3707,16 +3710,16 @@
         <v>26365</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>30</v>
       </c>
       <c r="M6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="O6" s="6">
         <v>115000</v>
@@ -3751,25 +3754,25 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="5">
         <v>44785</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="H7" s="8">
         <v>0.27989999999999998</v>
@@ -3781,16 +3784,16 @@
         <v>26332</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>30</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O7" s="6">
         <v>69000</v>
@@ -3825,7 +3828,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="5">
         <v>44805</v>
@@ -3837,13 +3840,13 @@
         <v>45121</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="H8" s="8">
         <v>0.2999</v>
@@ -3855,7 +3858,7 @@
         <v>29128</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>30</v>
@@ -3864,7 +3867,7 @@
         <v>31</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O8" s="6">
         <v>49000</v>
@@ -3899,25 +3902,25 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="5">
         <v>44804</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="H9" s="8">
         <v>0.2999</v>
@@ -3938,7 +3941,7 @@
         <v>31</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O9" s="6">
         <v>96500</v>
@@ -3973,25 +3976,25 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="5">
         <v>44812</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="H10" s="8">
         <v>0.2999</v>
@@ -4012,7 +4015,7 @@
         <v>37</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O10" s="6">
         <v>74000</v>
@@ -4047,7 +4050,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="5">
         <v>44812</v>
@@ -4059,13 +4062,13 @@
         <v>45142</v>
       </c>
       <c r="E11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="G11" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H11" s="8">
         <v>0.27989999999999998</v>
@@ -4077,7 +4080,7 @@
         <v>32493</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>30</v>
@@ -4086,7 +4089,7 @@
         <v>37</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O11" s="6">
         <v>100000</v>
@@ -4121,7 +4124,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B12" s="5">
         <v>44812</v>
@@ -4133,7 +4136,7 @@
         <v>44985</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>42</v>
@@ -4160,7 +4163,7 @@
         <v>31</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O12" s="6">
         <v>97500</v>
@@ -4195,25 +4198,25 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" s="5">
         <v>44819</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>87</v>
-      </c>
       <c r="G13" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H13" s="8">
         <v>0.27989999999999998</v>
@@ -4225,7 +4228,7 @@
         <v>22079</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>30</v>
@@ -4234,7 +4237,7 @@
         <v>31</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O13" s="6">
         <v>40400</v>
@@ -4269,25 +4272,25 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5">
         <v>44820</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="H14" s="8">
         <v>0.26989999999999997</v>
@@ -4308,7 +4311,7 @@
         <v>31</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O14" s="6">
         <v>72300</v>
@@ -4343,7 +4346,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" s="5">
         <v>44820</v>
@@ -4355,13 +4358,13 @@
         <v>45064</v>
       </c>
       <c r="E15" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="G15" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="H15" s="8">
         <v>0.27989999999999998</v>
@@ -4382,7 +4385,7 @@
         <v>37</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O15" s="6">
         <v>45000</v>
@@ -4417,7 +4420,7 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="5">
         <v>44819</v>
@@ -4429,7 +4432,7 @@
         <v>45366</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>42</v>
@@ -4453,10 +4456,10 @@
         <v>30</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O16" s="6">
         <v>82500</v>
@@ -4491,25 +4494,25 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B17" s="5">
         <v>44827</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="H17" s="8">
         <v>0.28989999999999999</v>
@@ -4530,7 +4533,7 @@
         <v>31</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O17" s="6">
         <v>109800</v>
@@ -4565,25 +4568,25 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B18" s="5">
         <v>44833</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="G18" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>108</v>
       </c>
       <c r="H18" s="8">
         <v>0.28989999999999999</v>
@@ -4595,16 +4598,16 @@
         <v>28643</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>30</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O18" s="6">
         <v>60200</v>
@@ -4639,7 +4642,7 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B19" s="5">
         <v>44831</v>
@@ -4651,13 +4654,13 @@
         <v>45174</v>
       </c>
       <c r="E19" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="G19" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="H19" s="8">
         <v>0.28989999999999999</v>
@@ -4669,7 +4672,7 @@
         <v>27643</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>30</v>
@@ -4678,7 +4681,7 @@
         <v>31</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O19" s="6">
         <v>97500</v>
@@ -4713,7 +4716,7 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B20" s="5">
         <v>44820</v>
@@ -4725,13 +4728,13 @@
         <v>45438</v>
       </c>
       <c r="E20" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="G20" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="8">
         <v>0.26989999999999997</v>
@@ -4752,7 +4755,7 @@
         <v>37</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O20" s="6">
         <v>77200</v>
@@ -4787,25 +4790,25 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B21" s="5">
         <v>44819</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F21" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>122</v>
       </c>
       <c r="H21" s="8">
         <v>0.24990000000000001</v>
@@ -4826,7 +4829,7 @@
         <v>31</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O21" s="6">
         <v>91000</v>
@@ -4861,25 +4864,25 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B22" s="5">
         <v>44832</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="G22" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>127</v>
       </c>
       <c r="H22" s="8">
         <v>0.2999</v>
@@ -4900,7 +4903,7 @@
         <v>31</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O22" s="6">
         <v>120000</v>
@@ -4935,25 +4938,25 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B23" s="5">
         <v>44820</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="G23" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="H23" s="8">
         <v>0.27989999999999998</v>
@@ -4965,7 +4968,7 @@
         <v>24569</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L23" s="6" t="s">
         <v>30</v>
@@ -4974,7 +4977,7 @@
         <v>31</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O23" s="6">
         <v>81400</v>
@@ -5009,25 +5012,25 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B24" s="5">
         <v>44838</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E24" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="G24" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>137</v>
       </c>
       <c r="H24" s="8">
         <v>0.24990000000000001</v>
@@ -5048,7 +5051,7 @@
         <v>31</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O24" s="6">
         <v>48700</v>
@@ -5083,25 +5086,25 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B25" s="5">
         <v>44825</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="G25" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>142</v>
       </c>
       <c r="H25" s="8">
         <v>0.28989999999999999</v>
@@ -5122,7 +5125,7 @@
         <v>31</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O25" s="6">
         <v>59300</v>
@@ -5157,25 +5160,25 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B26" s="5">
         <v>44820</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E26" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="G26" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="H26" s="8">
         <v>0.2999</v>
@@ -5196,7 +5199,7 @@
         <v>37</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O26" s="6">
         <v>45500</v>
@@ -5231,7 +5234,7 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B27" s="5">
         <v>44832</v>
@@ -5243,13 +5246,13 @@
         <v>45265</v>
       </c>
       <c r="E27" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>151</v>
-      </c>
       <c r="G27" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H27" s="8">
         <v>0.2999</v>
@@ -5270,7 +5273,7 @@
         <v>37</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O27" s="6">
         <v>55700</v>
@@ -5305,25 +5308,25 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B28" s="5">
         <v>44846</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E28" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="G28" s="6" t="s">
         <v>155</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>156</v>
       </c>
       <c r="H28" s="8">
         <v>0.28989999999999999</v>
@@ -5344,7 +5347,7 @@
         <v>37</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O28" s="6">
         <v>37500</v>
@@ -5379,7 +5382,7 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B29" s="5">
         <v>44902</v>
@@ -5391,13 +5394,13 @@
         <v>45131</v>
       </c>
       <c r="E29" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="G29" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>161</v>
       </c>
       <c r="H29" s="8">
         <v>0.2999</v>
@@ -5418,7 +5421,7 @@
         <v>31</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O29" s="6">
         <v>60000</v>
@@ -5453,25 +5456,25 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B30" s="5">
         <v>44953</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="H30" s="8">
         <v>0.2999</v>
@@ -5492,7 +5495,7 @@
         <v>31</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O30" s="6">
         <v>79800</v>
@@ -5527,7 +5530,7 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B31" s="5">
         <v>44960</v>
@@ -5539,13 +5542,13 @@
         <v>45439</v>
       </c>
       <c r="E31" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="G31" s="6" t="s">
         <v>169</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>170</v>
       </c>
       <c r="H31" s="8">
         <v>0.2999</v>
@@ -5557,7 +5560,7 @@
         <v>35269</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L31" s="6" t="s">
         <v>30</v>
@@ -5566,7 +5569,7 @@
         <v>37</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O31" s="6">
         <v>44800</v>
@@ -5601,25 +5604,25 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B32" s="5">
         <v>44953</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E32" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="G32" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="H32" s="8">
         <v>0.2999</v>
@@ -5640,7 +5643,7 @@
         <v>31</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O32" s="6">
         <v>115800</v>
@@ -5675,25 +5678,25 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B33" s="5">
         <v>44959</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F33" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="H33" s="8">
         <v>0.2999</v>
@@ -5714,7 +5717,7 @@
         <v>31</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O33" s="6">
         <v>60300</v>
@@ -5749,25 +5752,25 @@
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B34" s="5">
         <v>44958</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E34" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="G34" s="6" t="s">
         <v>183</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>184</v>
       </c>
       <c r="H34" s="8">
         <v>0.27989999999999998</v>
@@ -5788,7 +5791,7 @@
         <v>31</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O34" s="6">
         <v>605300</v>
@@ -5823,7 +5826,7 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B35" s="5">
         <v>44971</v>
@@ -5835,7 +5838,7 @@
         <v>44999</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>42</v>
@@ -5862,7 +5865,7 @@
         <v>31</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O35" s="6">
         <v>37500</v>
@@ -5897,7 +5900,7 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B36" s="5">
         <v>44970</v>
@@ -5909,13 +5912,13 @@
         <v>45092</v>
       </c>
       <c r="E36" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="G36" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="H36" s="8">
         <v>0.2999</v>
@@ -5927,7 +5930,7 @@
         <v>33449</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L36" s="6" t="s">
         <v>30</v>
@@ -5936,7 +5939,7 @@
         <v>31</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O36" s="6">
         <v>58000</v>
@@ -5971,7 +5974,7 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B37" s="5">
         <v>44988</v>
@@ -5983,13 +5986,13 @@
         <v>45090</v>
       </c>
       <c r="E37" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="F37" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="G37" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>197</v>
       </c>
       <c r="H37" s="8">
         <v>0.2999</v>
@@ -6010,7 +6013,7 @@
         <v>31</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O37" s="6">
         <v>63700</v>
@@ -6045,25 +6048,25 @@
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B38" s="5">
         <v>44991</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E38" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F38" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="G38" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="H38" s="8">
         <v>0.2999</v>
@@ -6075,16 +6078,16 @@
         <v>28102</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L38" s="6" t="s">
         <v>30</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O38" s="6">
         <v>86800</v>
@@ -6119,25 +6122,25 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B39" s="5">
         <v>44980</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E39" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="F39" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="G39" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>207</v>
       </c>
       <c r="H39" s="8">
         <v>0.2999</v>
@@ -6149,7 +6152,7 @@
         <v>31753</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L39" s="6" t="s">
         <v>30</v>
@@ -6158,7 +6161,7 @@
         <v>37</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O39" s="6">
         <v>51000</v>
@@ -6193,7 +6196,7 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B40" s="5">
         <v>44980</v>
@@ -6205,7 +6208,7 @@
         <v>45399</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>42</v>
@@ -6232,7 +6235,7 @@
         <v>31</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O40" s="6">
         <v>95000</v>
@@ -6267,25 +6270,25 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B41" s="5">
         <v>44985</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F41" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>211</v>
       </c>
       <c r="H41" s="8">
         <v>0.2999</v>
@@ -6297,7 +6300,7 @@
         <v>29078</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L41" s="6" t="s">
         <v>30</v>
@@ -6306,7 +6309,7 @@
         <v>31</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="6">
         <v>120000</v>
@@ -6341,25 +6344,25 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B42" s="5">
         <v>45005</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E42" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="G42" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>215</v>
       </c>
       <c r="H42" s="8">
         <v>0.2999</v>
@@ -6374,13 +6377,13 @@
         <v>29</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M42" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O42" s="6">
         <v>89500</v>
@@ -6415,25 +6418,25 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B43" s="5">
         <v>44995</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E43" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="F43" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="G43" s="6" t="s">
         <v>220</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>221</v>
       </c>
       <c r="H43" s="8">
         <v>0.2999</v>
@@ -6454,7 +6457,7 @@
         <v>31</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O43" s="6">
         <v>54300</v>
@@ -6489,25 +6492,25 @@
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B44" s="5">
         <v>44999</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E44" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="G44" s="6" t="s">
         <v>225</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>226</v>
       </c>
       <c r="H44" s="8">
         <v>0.2999</v>
@@ -6528,7 +6531,7 @@
         <v>31</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O44" s="6">
         <v>160000</v>
@@ -6563,25 +6566,25 @@
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B45" s="5">
         <v>45000</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E45" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F45" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="G45" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>231</v>
       </c>
       <c r="H45" s="8">
         <v>0.25990000000000002</v>
@@ -6593,16 +6596,16 @@
         <v>28805</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M45" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O45" s="6">
         <v>48000</v>
@@ -6637,25 +6640,25 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B46" s="5">
         <v>45006</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E46" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="F46" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="G46" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>236</v>
       </c>
       <c r="H46" s="8">
         <v>0.25990000000000002</v>
@@ -6673,10 +6676,10 @@
         <v>30</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O46" s="6">
         <v>71500</v>
@@ -6711,25 +6714,25 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B47" s="5">
         <v>44998</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F47" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>239</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>240</v>
       </c>
       <c r="H47" s="8">
         <v>0.2999</v>
@@ -6741,16 +6744,16 @@
         <v>34830</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M47" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O47" s="6">
         <v>55000</v>
@@ -6785,25 +6788,25 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B48" s="5">
         <v>45016</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E48" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="F48" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="G48" s="6" t="s">
         <v>245</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>246</v>
       </c>
       <c r="H48" s="8">
         <v>0.26989999999999997</v>
@@ -6821,10 +6824,10 @@
         <v>30</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O48" s="6">
         <v>104000</v>
@@ -6859,25 +6862,25 @@
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B49" s="5">
         <v>45001</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E49" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="F49" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="G49" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>251</v>
       </c>
       <c r="H49" s="8">
         <v>0.2999</v>
@@ -6898,7 +6901,7 @@
         <v>31</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O49" s="6">
         <v>66500</v>
@@ -6933,25 +6936,25 @@
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B50" s="5">
         <v>45049</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="G50" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>255</v>
       </c>
       <c r="H50" s="8">
         <v>0.27989999999999998</v>
@@ -6963,16 +6966,16 @@
         <v>22894</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O50" s="6">
         <v>103000</v>
@@ -7007,25 +7010,25 @@
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B51" s="5">
         <v>45005</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E51" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F51" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="G51" s="6" t="s">
         <v>259</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>260</v>
       </c>
       <c r="H51" s="8">
         <v>0.27989999999999998</v>
@@ -7037,7 +7040,7 @@
         <v>22864</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L51" s="6" t="s">
         <v>30</v>
@@ -7046,7 +7049,7 @@
         <v>37</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O51" s="6">
         <v>89300</v>
@@ -7081,25 +7084,25 @@
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B52" s="5">
         <v>45022</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E52" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="F52" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="G52" s="6" t="s">
         <v>264</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>265</v>
       </c>
       <c r="H52" s="8">
         <v>0.2999</v>
@@ -7114,13 +7117,13 @@
         <v>29</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M52" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O52" s="6">
         <v>40000</v>
@@ -7155,25 +7158,25 @@
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B53" s="5">
         <v>45022</v>
       </c>
       <c r="C53" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="E53" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="F53" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="G53" s="6" t="s">
         <v>269</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>270</v>
       </c>
       <c r="H53" s="8">
         <v>0.28989999999999999</v>
@@ -7188,10 +7191,10 @@
         <v>29</v>
       </c>
       <c r="L53" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N53" s="6" t="s">
         <v>32</v>
@@ -7229,19 +7232,19 @@
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B54" s="5">
         <v>45030</v>
       </c>
       <c r="C54" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" s="6" t="s">
         <v>273</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>274</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>42</v>
@@ -7259,16 +7262,16 @@
         <v>32731</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M54" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O54" s="6">
         <v>85900</v>
@@ -7303,7 +7306,7 @@
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B55" s="5">
         <v>45027</v>
@@ -7315,13 +7318,13 @@
         <v>45452</v>
       </c>
       <c r="E55" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="F55" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="F55" s="6" t="s">
-        <v>278</v>
-      </c>
       <c r="G55" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H55" s="8">
         <v>0.25990000000000002</v>
@@ -7339,10 +7342,10 @@
         <v>30</v>
       </c>
       <c r="M55" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O55" s="6">
         <v>91000</v>
@@ -7377,25 +7380,25 @@
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B56" s="5">
         <v>45034</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E56" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="F56" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="G56" s="6" t="s">
         <v>282</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>283</v>
       </c>
       <c r="H56" s="8">
         <v>0.24990000000000001</v>
@@ -7413,10 +7416,10 @@
         <v>30</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O56" s="6">
         <v>70000</v>
@@ -7451,25 +7454,25 @@
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B57" s="5">
         <v>45030</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E57" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="F57" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="G57" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="H57" s="8">
         <v>0.2999</v>
@@ -7484,13 +7487,13 @@
         <v>29</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O57" s="6">
         <v>106000</v>
@@ -7525,25 +7528,25 @@
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B58" s="5">
         <v>45031</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E58" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F58" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="G58" s="6" t="s">
         <v>292</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>293</v>
       </c>
       <c r="H58" s="8">
         <v>0.2999</v>
@@ -7555,16 +7558,16 @@
         <v>28186</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M58" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O58" s="6">
         <v>52000</v>
@@ -7599,25 +7602,25 @@
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B59" s="5">
         <v>45057</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E59" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="F59" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="F59" s="6" t="s">
+      <c r="G59" s="6" t="s">
         <v>297</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>298</v>
       </c>
       <c r="H59" s="8">
         <v>0.26989999999999997</v>
@@ -7629,7 +7632,7 @@
         <v>25060</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L59" s="6" t="s">
         <v>30</v>
@@ -7638,7 +7641,7 @@
         <v>31</v>
       </c>
       <c r="N59" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O59" s="6">
         <v>64700</v>
@@ -7673,25 +7676,25 @@
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B60" s="5">
         <v>45033</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E60" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="F60" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="G60" s="6" t="s">
         <v>301</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>302</v>
       </c>
       <c r="H60" s="8">
         <v>0.2999</v>
@@ -7703,7 +7706,7 @@
         <v>32479</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L60" s="6" t="s">
         <v>30</v>
@@ -7712,7 +7715,7 @@
         <v>37</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O60" s="6">
         <v>70000</v>
@@ -7747,25 +7750,25 @@
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B61" s="5">
         <v>45035</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E61" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="F61" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="F61" s="6" t="s">
+      <c r="G61" s="6" t="s">
         <v>306</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>307</v>
       </c>
       <c r="H61" s="8">
         <v>0.27989999999999998</v>
@@ -7780,13 +7783,13 @@
         <v>29</v>
       </c>
       <c r="L61" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N61" s="6" t="s">
         <v>308</v>
-      </c>
-      <c r="M61" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="N61" s="6" t="s">
-        <v>309</v>
       </c>
       <c r="O61" s="6">
         <v>77000</v>
@@ -7821,25 +7824,25 @@
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B62" s="5">
         <v>45034</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E62" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="F62" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="G62" s="6" t="s">
         <v>312</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>313</v>
       </c>
       <c r="H62" s="8">
         <v>0.2999</v>
@@ -7854,13 +7857,13 @@
         <v>29</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M62" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O62" s="6">
         <v>90000</v>
@@ -7895,25 +7898,25 @@
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B63" s="5">
         <v>45040</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E63" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F63" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="F63" s="6" t="s">
+      <c r="G63" s="6" t="s">
         <v>316</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>317</v>
       </c>
       <c r="H63" s="8">
         <v>0.25990000000000002</v>
@@ -7925,7 +7928,7 @@
         <v>33330</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L63" s="6" t="s">
         <v>30</v>
@@ -7934,7 +7937,7 @@
         <v>37</v>
       </c>
       <c r="N63" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O63" s="6">
         <v>46000</v>
@@ -7969,7 +7972,7 @@
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B64" s="5">
         <v>45034</v>
@@ -7981,13 +7984,13 @@
         <v>45243</v>
       </c>
       <c r="E64" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="F64" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F64" s="6" t="s">
+      <c r="G64" s="6" t="s">
         <v>321</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>322</v>
       </c>
       <c r="H64" s="8">
         <v>0.2999</v>
@@ -8008,7 +8011,7 @@
         <v>31</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O64" s="6">
         <v>88000</v>
@@ -8043,25 +8046,25 @@
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B65" s="5">
         <v>45042</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E65" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="F65" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="F65" s="6" t="s">
+      <c r="G65" s="6" t="s">
         <v>326</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>327</v>
       </c>
       <c r="H65" s="8">
         <v>0.2999</v>
@@ -8076,13 +8079,13 @@
         <v>29</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M65" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N65" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O65" s="6">
         <v>55800</v>
@@ -8117,25 +8120,25 @@
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B66" s="5">
         <v>45041</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E66" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="F66" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="F66" s="6" t="s">
+      <c r="G66" s="6" t="s">
         <v>331</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>332</v>
       </c>
       <c r="H66" s="8">
         <v>0.2999</v>
@@ -8147,16 +8150,16 @@
         <v>21581</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M66" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O66" s="6">
         <v>53400</v>
@@ -8191,7 +8194,7 @@
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B67" s="5">
         <v>45043</v>
@@ -8203,13 +8206,13 @@
         <v>45336</v>
       </c>
       <c r="E67" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="F67" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="F67" s="6" t="s">
+      <c r="G67" s="6" t="s">
         <v>336</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>337</v>
       </c>
       <c r="H67" s="8">
         <v>0.2999</v>
@@ -8224,13 +8227,13 @@
         <v>29</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M67" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N67" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O67" s="6">
         <v>71000</v>
@@ -8265,7 +8268,7 @@
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B68" s="5">
         <v>45049</v>
@@ -8277,7 +8280,7 @@
         <v>45426</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>42</v>
@@ -8298,13 +8301,13 @@
         <v>29</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M68" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O68" s="6">
         <v>60000</v>
@@ -8339,25 +8342,25 @@
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B69" s="5">
         <v>45044</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E69" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="F69" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="F69" s="6" t="s">
+      <c r="G69" s="6" t="s">
         <v>344</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>345</v>
       </c>
       <c r="H69" s="8">
         <v>0.2999</v>
@@ -8372,13 +8375,13 @@
         <v>29</v>
       </c>
       <c r="L69" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M69" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N69" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O69" s="6">
         <v>68000</v>
@@ -8413,25 +8416,25 @@
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B70" s="5">
         <v>45092</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F70" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="G70" s="6" t="s">
         <v>348</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>349</v>
       </c>
       <c r="H70" s="8">
         <v>0.27989999999999998</v>
@@ -8443,7 +8446,7 @@
         <v>30928</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L70" s="6" t="s">
         <v>30</v>
@@ -8452,7 +8455,7 @@
         <v>37</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O70" s="6">
         <v>68400</v>
@@ -8487,7 +8490,7 @@
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B71" s="5">
         <v>45054</v>
@@ -8499,7 +8502,7 @@
         <v>45251</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>42</v>
@@ -8517,16 +8520,16 @@
         <v>30967</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L71" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M71" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N71" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O71" s="6">
         <v>54300</v>
@@ -8561,25 +8564,25 @@
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B72" s="5">
         <v>45055</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F72" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="G72" s="6" t="s">
         <v>354</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>355</v>
       </c>
       <c r="H72" s="8">
         <v>0.26989999999999997</v>
@@ -8591,16 +8594,16 @@
         <v>33848</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M72" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O72" s="6">
         <v>64300</v>
@@ -8635,25 +8638,25 @@
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B73" s="5">
         <v>45058</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E73" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="F73" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="F73" s="6" t="s">
+      <c r="G73" s="6" t="s">
         <v>359</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>360</v>
       </c>
       <c r="H73" s="8">
         <v>0.25990000000000002</v>
@@ -8668,13 +8671,13 @@
         <v>29</v>
       </c>
       <c r="L73" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M73" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N73" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="N73" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="O73" s="6">
         <v>84800</v>
@@ -8709,7 +8712,7 @@
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B74" s="5">
         <v>45058</v>
@@ -8721,7 +8724,7 @@
         <v>45142</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>42</v>
@@ -8748,7 +8751,7 @@
         <v>37</v>
       </c>
       <c r="N74" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O74" s="6">
         <v>54200</v>
@@ -8783,7 +8786,7 @@
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B75" s="5">
         <v>45056</v>
@@ -8795,13 +8798,13 @@
         <v>45374</v>
       </c>
       <c r="E75" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="F75" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="F75" s="6" t="s">
-        <v>365</v>
-      </c>
       <c r="G75" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H75" s="8">
         <v>0.2999</v>
@@ -8816,13 +8819,13 @@
         <v>29</v>
       </c>
       <c r="L75" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M75" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N75" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O75" s="6">
         <v>62200</v>
@@ -8857,25 +8860,25 @@
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B76" s="5">
         <v>45061</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E76" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="F76" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="F76" s="6" t="s">
+      <c r="G76" s="6" t="s">
         <v>368</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>369</v>
       </c>
       <c r="H76" s="8">
         <v>0.2999</v>
@@ -8890,13 +8893,13 @@
         <v>29</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M76" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N76" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O76" s="6">
         <v>54000</v>
@@ -8931,25 +8934,25 @@
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B77" s="5">
         <v>45062</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E77" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="F77" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="F77" s="6" t="s">
+      <c r="G77" s="6" t="s">
         <v>373</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>374</v>
       </c>
       <c r="H77" s="8">
         <v>0.28989999999999999</v>
@@ -8970,7 +8973,7 @@
         <v>31</v>
       </c>
       <c r="N77" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O77" s="6">
         <v>57000</v>
@@ -9005,25 +9008,25 @@
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B78" s="5">
         <v>45061</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F78" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="G78" s="6" t="s">
         <v>377</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>378</v>
       </c>
       <c r="H78" s="8">
         <v>0.27989999999999998</v>
@@ -9035,16 +9038,16 @@
         <v>31131</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M78" s="6" t="s">
         <v>37</v>
       </c>
       <c r="N78" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="O78" s="6">
         <v>55600</v>
@@ -9079,25 +9082,25 @@
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B79" s="5">
         <v>45064</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E79" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="F79" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="F79" s="6" t="s">
+      <c r="G79" s="6" t="s">
         <v>383</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>384</v>
       </c>
       <c r="H79" s="8">
         <v>0.2999</v>
@@ -9109,7 +9112,7 @@
         <v>30453</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L79" s="6" t="s">
         <v>30</v>
@@ -9118,7 +9121,7 @@
         <v>37</v>
       </c>
       <c r="N79" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O79" s="6">
         <v>78800</v>
@@ -9153,25 +9156,25 @@
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B80" s="5">
         <v>45065</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E80" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="F80" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="F80" s="6" t="s">
+      <c r="G80" s="6" t="s">
         <v>388</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>389</v>
       </c>
       <c r="H80" s="8">
         <v>0.2999</v>
@@ -9183,16 +9186,16 @@
         <v>29027</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M80" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N80" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O80" s="6">
         <v>93600</v>
@@ -9227,25 +9230,25 @@
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B81" s="5">
         <v>45075</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E81" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="F81" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="F81" s="6" t="s">
+      <c r="G81" s="6" t="s">
         <v>393</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>394</v>
       </c>
       <c r="H81" s="8">
         <v>0.28989999999999999</v>
@@ -9266,7 +9269,7 @@
         <v>31</v>
       </c>
       <c r="N81" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="O81" s="6">
         <v>88000</v>
@@ -9301,25 +9304,25 @@
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B82" s="5">
         <v>45084</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F82" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="G82" s="6" t="s">
         <v>397</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>398</v>
       </c>
       <c r="H82" s="8">
         <v>0.27989999999999998</v>
@@ -9340,7 +9343,7 @@
         <v>31</v>
       </c>
       <c r="N82" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O82" s="6">
         <v>80000</v>
@@ -9375,25 +9378,25 @@
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B83" s="5">
         <v>45082</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E83" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="F83" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="F83" s="6" t="s">
-        <v>402</v>
-      </c>
       <c r="G83" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H83" s="8">
         <v>0.27989999999999998</v>
@@ -9414,7 +9417,7 @@
         <v>37</v>
       </c>
       <c r="N83" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="O83" s="6">
         <v>33200</v>
@@ -9449,25 +9452,25 @@
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B84" s="5">
         <v>45077</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F84" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="G84" s="6" t="s">
         <v>405</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>406</v>
       </c>
       <c r="H84" s="8">
         <v>0.24990000000000001</v>
@@ -9485,10 +9488,10 @@
         <v>30</v>
       </c>
       <c r="M84" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N84" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="O84" s="6">
         <v>88200</v>
@@ -9523,25 +9526,25 @@
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B85" s="5">
         <v>45077</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E85" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="F85" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="F85" s="6" t="s">
+      <c r="G85" s="6" t="s">
         <v>410</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>411</v>
       </c>
       <c r="H85" s="8">
         <v>0.2999</v>
@@ -9553,16 +9556,16 @@
         <v>26350</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L85" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M85" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N85" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="O85" s="6">
         <v>57200</v>
@@ -9597,7 +9600,7 @@
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B86" s="5">
         <v>45082</v>
@@ -9609,7 +9612,7 @@
         <v>45142</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>42</v>
@@ -9636,7 +9639,7 @@
         <v>37</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="O86" s="6">
         <v>74300</v>
@@ -9671,25 +9674,25 @@
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B87" s="5">
         <v>45085</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E87" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="F87" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="F87" s="6" t="s">
+      <c r="G87" s="6" t="s">
         <v>418</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>419</v>
       </c>
       <c r="H87" s="8">
         <v>0.2999</v>
@@ -9701,16 +9704,16 @@
         <v>31232</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L87" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M87" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N87" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O87" s="6">
         <v>75000</v>
@@ -9745,25 +9748,25 @@
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B88" s="5">
         <v>45086</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E88" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="F88" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="F88" s="6" t="s">
-        <v>422</v>
-      </c>
       <c r="G88" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H88" s="8">
         <v>0.2999</v>
@@ -9784,7 +9787,7 @@
         <v>31</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="O88" s="6">
         <v>109000</v>
@@ -9819,25 +9822,25 @@
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B89" s="5">
         <v>45089</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E89" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="F89" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="F89" s="6" t="s">
+      <c r="G89" s="6" t="s">
         <v>426</v>
-      </c>
-      <c r="G89" s="6" t="s">
-        <v>427</v>
       </c>
       <c r="H89" s="8">
         <v>0.2999</v>
@@ -9858,7 +9861,7 @@
         <v>37</v>
       </c>
       <c r="N89" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="O89" s="6">
         <v>66000</v>
@@ -9893,25 +9896,25 @@
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B90" s="5">
         <v>45089</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E90" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="F90" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="F90" s="6" t="s">
+      <c r="G90" s="6" t="s">
         <v>431</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>432</v>
       </c>
       <c r="H90" s="8">
         <v>0.2999</v>
@@ -9923,7 +9926,7 @@
         <v>34390</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L90" s="6" t="s">
         <v>30</v>
@@ -9932,7 +9935,7 @@
         <v>31</v>
       </c>
       <c r="N90" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="O90" s="6">
         <v>77000</v>
@@ -9967,7 +9970,7 @@
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B91" s="5">
         <v>45098</v>
@@ -9979,13 +9982,13 @@
         <v>45358</v>
       </c>
       <c r="E91" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="F91" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="F91" s="6" t="s">
+      <c r="G91" s="6" t="s">
         <v>436</v>
-      </c>
-      <c r="G91" s="6" t="s">
-        <v>437</v>
       </c>
       <c r="H91" s="8">
         <v>0.27989999999999998</v>
@@ -10000,13 +10003,13 @@
         <v>29</v>
       </c>
       <c r="L91" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M91" s="6" t="s">
         <v>37</v>
       </c>
       <c r="N91" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O91" s="6">
         <v>69900</v>
@@ -10041,25 +10044,25 @@
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B92" s="5">
         <v>45089</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F92" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="G92" s="6" t="s">
         <v>440</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>441</v>
       </c>
       <c r="H92" s="8">
         <v>0.2999</v>
@@ -10071,16 +10074,16 @@
         <v>31776</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L92" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M92" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N92" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="O92" s="6">
         <v>54900</v>
@@ -10115,25 +10118,25 @@
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B93" s="5">
         <v>45092</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E93" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="F93" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="F93" s="6" t="s">
+      <c r="G93" s="6" t="s">
         <v>445</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>446</v>
       </c>
       <c r="H93" s="8">
         <v>0.27989999999999998</v>
@@ -10145,7 +10148,7 @@
         <v>30844</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L93" s="6" t="s">
         <v>30</v>
@@ -10154,7 +10157,7 @@
         <v>31</v>
       </c>
       <c r="N93" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="O93" s="6">
         <v>47900</v>
@@ -10189,25 +10192,25 @@
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B94" s="5">
         <v>45092</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E94" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="F94" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="F94" s="6" t="s">
+      <c r="G94" s="6" t="s">
         <v>450</v>
-      </c>
-      <c r="G94" s="6" t="s">
-        <v>451</v>
       </c>
       <c r="H94" s="8">
         <v>0.27989999999999998</v>
@@ -10228,7 +10231,7 @@
         <v>31</v>
       </c>
       <c r="N94" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O94" s="6">
         <v>66500</v>
@@ -10263,25 +10266,25 @@
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B95" s="5">
         <v>45098</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E95" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="F95" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="F95" s="6" t="s">
+      <c r="G95" s="6" t="s">
         <v>454</v>
-      </c>
-      <c r="G95" s="6" t="s">
-        <v>455</v>
       </c>
       <c r="H95" s="8">
         <v>0.27989999999999998</v>
@@ -10302,7 +10305,7 @@
         <v>31</v>
       </c>
       <c r="N95" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O95" s="6">
         <v>72000</v>
@@ -10337,25 +10340,25 @@
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B96" s="5">
         <v>45112</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E96" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="F96" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="F96" s="6" t="s">
+      <c r="G96" s="6" t="s">
         <v>459</v>
-      </c>
-      <c r="G96" s="6" t="s">
-        <v>460</v>
       </c>
       <c r="H96" s="8">
         <v>0.24990000000000001</v>
@@ -10376,7 +10379,7 @@
         <v>31</v>
       </c>
       <c r="N96" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O96" s="6">
         <v>50000</v>
@@ -10411,25 +10414,25 @@
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B97" s="5">
         <v>45100</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E97" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="F97" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="F97" s="6" t="s">
+      <c r="G97" s="6" t="s">
         <v>464</v>
-      </c>
-      <c r="G97" s="6" t="s">
-        <v>465</v>
       </c>
       <c r="H97" s="8">
         <v>0.2999</v>
@@ -10444,13 +10447,13 @@
         <v>29</v>
       </c>
       <c r="L97" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M97" s="6" t="s">
         <v>37</v>
       </c>
       <c r="N97" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O97" s="6">
         <v>39000</v>
@@ -10485,25 +10488,25 @@
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B98" s="5">
         <v>45103</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E98" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="F98" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="F98" s="6" t="s">
+      <c r="G98" s="6" t="s">
         <v>469</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>470</v>
       </c>
       <c r="H98" s="8">
         <v>0.2999</v>
@@ -10524,7 +10527,7 @@
         <v>31</v>
       </c>
       <c r="N98" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O98" s="6">
         <v>53000</v>
@@ -10559,25 +10562,25 @@
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B99" s="5">
         <v>45119</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E99" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="F99" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="F99" s="6" t="s">
+      <c r="G99" s="6" t="s">
         <v>473</v>
-      </c>
-      <c r="G99" s="6" t="s">
-        <v>474</v>
       </c>
       <c r="H99" s="8">
         <v>0.2999</v>
@@ -10598,7 +10601,7 @@
         <v>31</v>
       </c>
       <c r="N99" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O99" s="6">
         <v>80000</v>
@@ -10633,25 +10636,25 @@
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B100" s="5">
         <v>45121</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F100" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="G100" s="6" t="s">
         <v>476</v>
-      </c>
-      <c r="G100" s="6" t="s">
-        <v>477</v>
       </c>
       <c r="H100" s="8">
         <v>0.2999</v>
@@ -10672,7 +10675,7 @@
         <v>31</v>
       </c>
       <c r="N100" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O100" s="6">
         <v>97000</v>
@@ -10707,25 +10710,25 @@
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B101" s="5">
         <v>45128</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E101" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="F101" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="F101" s="6" t="s">
+      <c r="G101" s="6" t="s">
         <v>481</v>
-      </c>
-      <c r="G101" s="6" t="s">
-        <v>482</v>
       </c>
       <c r="H101" s="8">
         <v>0.2999</v>
@@ -10740,13 +10743,13 @@
         <v>29</v>
       </c>
       <c r="L101" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M101" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N101" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O101" s="6">
         <v>55000</v>
@@ -10781,25 +10784,25 @@
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B102" s="5">
         <v>45132</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F102" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="G102" s="6" t="s">
         <v>484</v>
-      </c>
-      <c r="G102" s="6" t="s">
-        <v>485</v>
       </c>
       <c r="H102" s="8">
         <v>0.2999</v>
@@ -10814,13 +10817,13 @@
         <v>29</v>
       </c>
       <c r="L102" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M102" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N102" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O102" s="6">
         <v>67000</v>
@@ -10855,25 +10858,25 @@
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B103" s="5">
         <v>45180</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E103" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="F103" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="F103" s="6" t="s">
+      <c r="G103" s="6" t="s">
         <v>488</v>
-      </c>
-      <c r="G103" s="6" t="s">
-        <v>489</v>
       </c>
       <c r="H103" s="8">
         <v>0.26989999999999997</v>
@@ -10894,7 +10897,7 @@
         <v>37</v>
       </c>
       <c r="N103" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="O103" s="6">
         <v>82000</v>
@@ -10929,25 +10932,25 @@
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B104" s="5">
         <v>45138</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E104" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="F104" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="F104" s="6" t="s">
+      <c r="G104" s="6" t="s">
         <v>493</v>
-      </c>
-      <c r="G104" s="6" t="s">
-        <v>494</v>
       </c>
       <c r="H104" s="8">
         <v>0.26989999999999997</v>
@@ -10962,13 +10965,13 @@
         <v>29</v>
       </c>
       <c r="L104" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M104" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N104" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="O104" s="6">
         <v>85900</v>
@@ -11003,25 +11006,25 @@
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B105" s="5">
         <v>45126</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E105" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="F105" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="F105" s="6" t="s">
+      <c r="G105" s="6" t="s">
         <v>498</v>
-      </c>
-      <c r="G105" s="6" t="s">
-        <v>499</v>
       </c>
       <c r="H105" s="8">
         <v>0.2999</v>
@@ -11033,16 +11036,16 @@
         <v>36865</v>
       </c>
       <c r="K105" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L105" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M105" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N105" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O105" s="6">
         <v>42000</v>
@@ -11077,25 +11080,25 @@
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B106" s="5">
         <v>45142</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E106" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="F106" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="F106" s="6" t="s">
+      <c r="G106" s="6" t="s">
         <v>503</v>
-      </c>
-      <c r="G106" s="6" t="s">
-        <v>504</v>
       </c>
       <c r="H106" s="8">
         <v>0.26989999999999997</v>
@@ -11116,7 +11119,7 @@
         <v>31</v>
       </c>
       <c r="N106" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="O106" s="6">
         <v>82000</v>
@@ -11151,25 +11154,25 @@
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B107" s="5">
         <v>45135</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E107" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="F107" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="F107" s="6" t="s">
+      <c r="G107" s="6" t="s">
         <v>507</v>
-      </c>
-      <c r="G107" s="6" t="s">
-        <v>508</v>
       </c>
       <c r="H107" s="8">
         <v>0.2999</v>
@@ -11184,13 +11187,13 @@
         <v>29</v>
       </c>
       <c r="L107" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="M107" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N107" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="O107" s="6">
         <v>43300</v>
@@ -11225,25 +11228,25 @@
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B108" s="5">
         <v>45142</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E108" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="F108" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="F108" s="6" t="s">
+      <c r="G108" s="6" t="s">
         <v>513</v>
-      </c>
-      <c r="G108" s="6" t="s">
-        <v>514</v>
       </c>
       <c r="H108" s="8">
         <v>0.27989999999999998</v>
@@ -11255,16 +11258,16 @@
         <v>29740</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L108" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M108" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N108" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="O108" s="6">
         <v>40000</v>
@@ -11299,25 +11302,25 @@
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B109" s="5">
         <v>45142</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E109" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="F109" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="F109" s="6" t="s">
+      <c r="G109" s="6" t="s">
         <v>518</v>
-      </c>
-      <c r="G109" s="6" t="s">
-        <v>519</v>
       </c>
       <c r="H109" s="8">
         <v>0.27989999999999998</v>
@@ -11332,13 +11335,13 @@
         <v>29</v>
       </c>
       <c r="L109" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M109" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N109" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="O109" s="6">
         <v>42700</v>
@@ -11373,7 +11376,7 @@
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B110" s="5">
         <v>45148</v>
@@ -11385,13 +11388,13 @@
         <v>45281</v>
       </c>
       <c r="E110" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="F110" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="F110" s="6" t="s">
-        <v>523</v>
-      </c>
       <c r="G110" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H110" s="8">
         <v>0.28989999999999999</v>
@@ -11403,16 +11406,16 @@
         <v>31987</v>
       </c>
       <c r="K110" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L110" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="M110" s="6" t="s">
         <v>37</v>
       </c>
       <c r="N110" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="O110" s="6">
         <v>63000</v>
@@ -11447,25 +11450,25 @@
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B111" s="5">
         <v>45154</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E111" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="F111" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="F111" s="6" t="s">
+      <c r="G111" s="6" t="s">
         <v>528</v>
-      </c>
-      <c r="G111" s="6" t="s">
-        <v>529</v>
       </c>
       <c r="H111" s="8">
         <v>0.2999</v>
@@ -11486,7 +11489,7 @@
         <v>31</v>
       </c>
       <c r="N111" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="O111" s="6">
         <v>122000</v>
@@ -11521,25 +11524,25 @@
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B112" s="5">
         <v>45160</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E112" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="F112" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="F112" s="6" t="s">
+      <c r="G112" s="6" t="s">
         <v>533</v>
-      </c>
-      <c r="G112" s="6" t="s">
-        <v>534</v>
       </c>
       <c r="H112" s="8">
         <v>0.28989999999999999</v>
@@ -11554,13 +11557,13 @@
         <v>29</v>
       </c>
       <c r="L112" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="M112" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N112" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="O112" s="6">
         <v>45500</v>
@@ -11595,25 +11598,25 @@
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B113" s="5">
         <v>45156</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E113" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="F113" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="F113" s="6" t="s">
+      <c r="G113" s="6" t="s">
         <v>538</v>
-      </c>
-      <c r="G113" s="6" t="s">
-        <v>539</v>
       </c>
       <c r="H113" s="8">
         <v>0.26989999999999997</v>
@@ -11634,7 +11637,7 @@
         <v>31</v>
       </c>
       <c r="N113" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O113" s="6">
         <v>96000</v>
@@ -11669,25 +11672,25 @@
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B114" s="5">
         <v>45187</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E114" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="F114" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="F114" s="6" t="s">
+      <c r="G114" s="6" t="s">
         <v>542</v>
-      </c>
-      <c r="G114" s="6" t="s">
-        <v>543</v>
       </c>
       <c r="H114" s="8">
         <v>0.27989999999999998</v>
@@ -11708,7 +11711,7 @@
         <v>31</v>
       </c>
       <c r="N114" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O114" s="6">
         <v>45000</v>
@@ -11743,25 +11746,25 @@
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B115" s="5">
         <v>45167</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E115" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="F115" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="F115" s="6" t="s">
+      <c r="G115" s="6" t="s">
         <v>546</v>
-      </c>
-      <c r="G115" s="6" t="s">
-        <v>547</v>
       </c>
       <c r="H115" s="8">
         <v>0.2999</v>
@@ -11773,16 +11776,16 @@
         <v>27697</v>
       </c>
       <c r="K115" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L115" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M115" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N115" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="O115" s="6">
         <v>59600</v>
@@ -11817,7 +11820,7 @@
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B116" s="5">
         <v>45167</v>
@@ -11829,7 +11832,7 @@
         <v>45178</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>42</v>
@@ -11856,7 +11859,7 @@
         <v>31</v>
       </c>
       <c r="N116" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O116" s="6">
         <v>62000</v>
@@ -11891,25 +11894,25 @@
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B117" s="5">
         <v>45168</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E117" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F117" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="F117" s="6" t="s">
-        <v>553</v>
-      </c>
       <c r="G117" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H117" s="8">
         <v>0.24990000000000001</v>
@@ -11921,7 +11924,7 @@
         <v>34085</v>
       </c>
       <c r="K117" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L117" s="6" t="s">
         <v>30</v>
@@ -11930,7 +11933,7 @@
         <v>31</v>
       </c>
       <c r="N117" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="O117" s="6">
         <v>37200</v>
@@ -11965,25 +11968,25 @@
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B118" s="5">
         <v>45168</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E118" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="F118" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="F118" s="6" t="s">
+      <c r="G118" s="6" t="s">
         <v>557</v>
-      </c>
-      <c r="G118" s="6" t="s">
-        <v>558</v>
       </c>
       <c r="H118" s="8">
         <v>0.2999</v>
@@ -11995,7 +11998,7 @@
         <v>22912</v>
       </c>
       <c r="K118" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L118" s="6" t="s">
         <v>30</v>
@@ -12004,7 +12007,7 @@
         <v>31</v>
       </c>
       <c r="N118" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="O118" s="6">
         <v>49900</v>
@@ -12039,25 +12042,25 @@
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B119" s="5">
         <v>45183</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F119" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G119" s="6" t="s">
         <v>561</v>
-      </c>
-      <c r="G119" s="6" t="s">
-        <v>562</v>
       </c>
       <c r="H119" s="8">
         <v>0.2999</v>
@@ -12069,16 +12072,16 @@
         <v>27165</v>
       </c>
       <c r="K119" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L119" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M119" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N119" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O119" s="6">
         <v>90000</v>
@@ -12113,25 +12116,25 @@
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B120" s="5">
         <v>45197</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E120" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="F120" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="F120" s="6" t="s">
+      <c r="G120" s="6" t="s">
         <v>566</v>
-      </c>
-      <c r="G120" s="6" t="s">
-        <v>567</v>
       </c>
       <c r="H120" s="8">
         <v>0.25990000000000002</v>
@@ -12146,13 +12149,13 @@
         <v>29</v>
       </c>
       <c r="L120" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M120" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N120" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O120" s="6">
         <v>39500</v>
@@ -12187,25 +12190,25 @@
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B121" s="5">
         <v>45184</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F121" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="G121" s="6" t="s">
         <v>569</v>
-      </c>
-      <c r="G121" s="6" t="s">
-        <v>570</v>
       </c>
       <c r="H121" s="8">
         <v>0.26989999999999997</v>
@@ -12226,7 +12229,7 @@
         <v>31</v>
       </c>
       <c r="N121" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O121" s="6">
         <v>69900</v>
@@ -12261,25 +12264,25 @@
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B122" s="5">
         <v>45181</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F122" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="G122" s="6" t="s">
         <v>572</v>
-      </c>
-      <c r="G122" s="6" t="s">
-        <v>573</v>
       </c>
       <c r="H122" s="8">
         <v>0.2999</v>
@@ -12300,7 +12303,7 @@
         <v>31</v>
       </c>
       <c r="N122" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O122" s="6">
         <v>75000</v>
@@ -12335,25 +12338,25 @@
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B123" s="5">
         <v>45183</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E123" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="F123" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="F123" s="6" t="s">
+      <c r="G123" s="6" t="s">
         <v>576</v>
-      </c>
-      <c r="G123" s="6" t="s">
-        <v>577</v>
       </c>
       <c r="H123" s="8">
         <v>0.2999</v>
@@ -12374,7 +12377,7 @@
         <v>31</v>
       </c>
       <c r="N123" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="O123" s="6">
         <v>130000</v>
@@ -12409,25 +12412,25 @@
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B124" s="5">
         <v>45196</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E124" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="F124" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="F124" s="6" t="s">
+      <c r="G124" s="6" t="s">
         <v>581</v>
-      </c>
-      <c r="G124" s="6" t="s">
-        <v>582</v>
       </c>
       <c r="H124" s="8">
         <v>0.27989999999999998</v>
@@ -12448,7 +12451,7 @@
         <v>31</v>
       </c>
       <c r="N124" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="O124" s="6">
         <v>73600</v>
@@ -12483,7 +12486,7 @@
     </row>
     <row r="125" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B125" s="5">
         <v>45195</v>
@@ -12495,13 +12498,13 @@
         <v>45322</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F125" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="G125" s="6" t="s">
         <v>585</v>
-      </c>
-      <c r="G125" s="6" t="s">
-        <v>586</v>
       </c>
       <c r="H125" s="8">
         <v>0.2999</v>
@@ -12516,13 +12519,13 @@
         <v>29</v>
       </c>
       <c r="L125" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M125" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N125" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="O125" s="6">
         <v>68600</v>
@@ -12557,25 +12560,25 @@
     </row>
     <row r="126" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B126" s="5">
         <v>45210</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E126" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="F126" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="F126" s="6" t="s">
+      <c r="G126" s="6" t="s">
         <v>590</v>
-      </c>
-      <c r="G126" s="6" t="s">
-        <v>591</v>
       </c>
       <c r="H126" s="8">
         <v>0.2999</v>
@@ -12587,7 +12590,7 @@
         <v>30704</v>
       </c>
       <c r="K126" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L126" s="6" t="s">
         <v>30</v>
@@ -12596,7 +12599,7 @@
         <v>31</v>
       </c>
       <c r="N126" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O126" s="6">
         <v>63300</v>
@@ -12631,25 +12634,25 @@
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B127" s="5">
         <v>45194</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F127" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="G127" s="6" t="s">
         <v>593</v>
-      </c>
-      <c r="G127" s="6" t="s">
-        <v>594</v>
       </c>
       <c r="H127" s="8">
         <v>0.28989999999999999</v>
@@ -12661,16 +12664,16 @@
         <v>27953</v>
       </c>
       <c r="K127" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L127" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M127" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N127" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="O127" s="6">
         <v>101000</v>
@@ -12705,25 +12708,25 @@
     </row>
     <row r="128" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B128" s="5">
         <v>45202</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F128" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="G128" s="6" t="s">
         <v>597</v>
-      </c>
-      <c r="G128" s="6" t="s">
-        <v>598</v>
       </c>
       <c r="H128" s="8">
         <v>0.28989999999999999</v>
@@ -12738,13 +12741,13 @@
         <v>29</v>
       </c>
       <c r="L128" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M128" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N128" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O128" s="6">
         <v>157250</v>
@@ -12779,25 +12782,25 @@
     </row>
     <row r="129" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B129" s="5">
         <v>45197</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F129" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="G129" s="6" t="s">
         <v>601</v>
-      </c>
-      <c r="G129" s="6" t="s">
-        <v>602</v>
       </c>
       <c r="H129" s="8">
         <v>0.2999</v>
@@ -12818,7 +12821,7 @@
         <v>31</v>
       </c>
       <c r="N129" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="O129" s="6">
         <v>41600</v>
@@ -12853,25 +12856,25 @@
     </row>
     <row r="130" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B130" s="5">
         <v>45205</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E130" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="F130" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="F130" s="6" t="s">
+      <c r="G130" s="6" t="s">
         <v>606</v>
-      </c>
-      <c r="G130" s="6" t="s">
-        <v>607</v>
       </c>
       <c r="H130" s="8">
         <v>0.2999</v>
@@ -12886,13 +12889,13 @@
         <v>29</v>
       </c>
       <c r="L130" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="M130" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N130" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="O130" s="6">
         <v>78000</v>
@@ -12927,7 +12930,7 @@
     </row>
     <row r="131" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B131" s="5">
         <v>45212</v>
@@ -12939,13 +12942,13 @@
         <v>45358</v>
       </c>
       <c r="E131" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="F131" s="6" t="s">
         <v>610</v>
       </c>
-      <c r="F131" s="6" t="s">
+      <c r="G131" s="6" t="s">
         <v>611</v>
-      </c>
-      <c r="G131" s="6" t="s">
-        <v>612</v>
       </c>
       <c r="H131" s="8">
         <v>0.2999</v>
@@ -12957,16 +12960,16 @@
         <v>35196</v>
       </c>
       <c r="K131" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L131" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="M131" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N131" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="O131" s="6">
         <v>83000</v>
@@ -13001,25 +13004,25 @@
     </row>
     <row r="132" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B132" s="5">
         <v>45203</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F132" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="G132" s="6" t="s">
         <v>615</v>
-      </c>
-      <c r="G132" s="6" t="s">
-        <v>616</v>
       </c>
       <c r="H132" s="8">
         <v>0.27989999999999998</v>
@@ -13034,13 +13037,13 @@
         <v>29</v>
       </c>
       <c r="L132" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M132" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N132" s="6" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="O132" s="6">
         <v>79600</v>
@@ -13075,25 +13078,25 @@
     </row>
     <row r="133" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B133" s="5">
         <v>45222</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E133" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="F133" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="F133" s="6" t="s">
+      <c r="G133" s="6" t="s">
         <v>620</v>
-      </c>
-      <c r="G133" s="6" t="s">
-        <v>621</v>
       </c>
       <c r="H133" s="8">
         <v>0.2999</v>
@@ -13114,7 +13117,7 @@
         <v>37</v>
       </c>
       <c r="N133" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="O133" s="6">
         <v>51000</v>
@@ -13149,25 +13152,25 @@
     </row>
     <row r="134" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B134" s="5">
         <v>45217</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F134" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="G134" s="6" t="s">
         <v>624</v>
-      </c>
-      <c r="G134" s="6" t="s">
-        <v>625</v>
       </c>
       <c r="H134" s="8">
         <v>0.24990000000000001</v>
@@ -13188,7 +13191,7 @@
         <v>31</v>
       </c>
       <c r="N134" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="O134" s="6">
         <v>85000</v>
@@ -13223,25 +13226,25 @@
     </row>
     <row r="135" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B135" s="5">
         <v>45222</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E135" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="F135" s="6" t="s">
         <v>628</v>
       </c>
-      <c r="F135" s="6" t="s">
+      <c r="G135" s="6" t="s">
         <v>629</v>
-      </c>
-      <c r="G135" s="6" t="s">
-        <v>630</v>
       </c>
       <c r="H135" s="8">
         <v>0.24990000000000001</v>
@@ -13262,7 +13265,7 @@
         <v>31</v>
       </c>
       <c r="N135" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O135" s="6">
         <v>71000</v>
@@ -13297,25 +13300,25 @@
     </row>
     <row r="136" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B136" s="5">
         <v>45229</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E136" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="F136" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="F136" s="6" t="s">
+      <c r="G136" s="6" t="s">
         <v>633</v>
-      </c>
-      <c r="G136" s="6" t="s">
-        <v>634</v>
       </c>
       <c r="H136" s="8">
         <v>0.24990000000000001</v>
@@ -13336,7 +13339,7 @@
         <v>31</v>
       </c>
       <c r="N136" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="O136" s="6">
         <v>89000</v>
@@ -13371,25 +13374,25 @@
     </row>
     <row r="137" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B137" s="5">
         <v>45229</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E137" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="F137" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="F137" s="6" t="s">
+      <c r="G137" s="6" t="s">
         <v>638</v>
-      </c>
-      <c r="G137" s="6" t="s">
-        <v>639</v>
       </c>
       <c r="H137" s="8">
         <v>0.24990000000000001</v>
@@ -13401,16 +13404,16 @@
         <v>33980</v>
       </c>
       <c r="K137" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L137" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M137" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N137" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O137" s="6">
         <v>50800</v>
@@ -13445,25 +13448,25 @@
     </row>
     <row r="138" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B138" s="5">
         <v>45231</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F138" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="G138" s="6" t="s">
         <v>641</v>
-      </c>
-      <c r="G138" s="6" t="s">
-        <v>642</v>
       </c>
       <c r="H138" s="8">
         <v>0.24990000000000001</v>
@@ -13478,13 +13481,13 @@
         <v>29</v>
       </c>
       <c r="L138" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M138" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N138" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="O138" s="6">
         <v>34900</v>
@@ -13519,25 +13522,25 @@
     </row>
     <row r="139" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B139" s="5">
         <v>45236</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F139" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="G139" s="6" t="s">
         <v>645</v>
-      </c>
-      <c r="G139" s="6" t="s">
-        <v>646</v>
       </c>
       <c r="H139" s="8">
         <v>0.24990000000000001</v>
@@ -13552,13 +13555,13 @@
         <v>29</v>
       </c>
       <c r="L139" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="M139" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N139" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="O139" s="6">
         <v>142200</v>
@@ -13593,25 +13596,25 @@
     </row>
     <row r="140" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B140" s="5">
         <v>45232</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E140" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="F140" s="6" t="s">
         <v>648</v>
       </c>
-      <c r="F140" s="6" t="s">
-        <v>649</v>
-      </c>
       <c r="G140" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H140" s="8">
         <v>0.24990000000000001</v>
@@ -13623,16 +13626,16 @@
         <v>37366</v>
       </c>
       <c r="K140" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L140" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="M140" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N140" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="O140" s="6">
         <v>61000</v>
@@ -13667,25 +13670,25 @@
     </row>
     <row r="141" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B141" s="5">
         <v>45233</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E141" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="F141" s="6" t="s">
         <v>652</v>
       </c>
-      <c r="F141" s="6" t="s">
+      <c r="G141" s="6" t="s">
         <v>653</v>
-      </c>
-      <c r="G141" s="6" t="s">
-        <v>654</v>
       </c>
       <c r="H141" s="8">
         <v>0.24990000000000001</v>
@@ -13697,7 +13700,7 @@
         <v>32918</v>
       </c>
       <c r="K141" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L141" s="6" t="s">
         <v>30</v>
@@ -13706,7 +13709,7 @@
         <v>31</v>
       </c>
       <c r="N141" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O141" s="6">
         <v>72000</v>
@@ -13741,25 +13744,25 @@
     </row>
     <row r="142" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B142" s="5">
         <v>45243</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F142" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="G142" s="6" t="s">
         <v>656</v>
-      </c>
-      <c r="G142" s="6" t="s">
-        <v>657</v>
       </c>
       <c r="H142" s="8">
         <v>0.27989999999999998</v>
@@ -13771,7 +13774,7 @@
         <v>28504</v>
       </c>
       <c r="K142" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L142" s="6" t="s">
         <v>30</v>
@@ -13780,7 +13783,7 @@
         <v>31</v>
       </c>
       <c r="N142" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="O142" s="6">
         <v>89000</v>
@@ -13815,25 +13818,25 @@
     </row>
     <row r="143" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B143" s="5">
         <v>45250</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F143" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="G143" s="6" t="s">
         <v>660</v>
-      </c>
-      <c r="G143" s="6" t="s">
-        <v>661</v>
       </c>
       <c r="H143" s="8">
         <v>0.2999</v>
@@ -13845,7 +13848,7 @@
         <v>28302</v>
       </c>
       <c r="K143" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L143" s="6" t="s">
         <v>30</v>
@@ -13854,7 +13857,7 @@
         <v>31</v>
       </c>
       <c r="N143" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="O143" s="6">
         <v>95000</v>
@@ -13889,25 +13892,25 @@
     </row>
     <row r="144" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B144" s="5">
         <v>45250</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E144" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="F144" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="F144" s="6" t="s">
+      <c r="G144" s="6" t="s">
         <v>665</v>
-      </c>
-      <c r="G144" s="6" t="s">
-        <v>666</v>
       </c>
       <c r="H144" s="8">
         <v>0.2999</v>
@@ -13919,16 +13922,16 @@
         <v>30747</v>
       </c>
       <c r="K144" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L144" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M144" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N144" s="6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="O144" s="6">
         <v>65900</v>
@@ -13963,25 +13966,25 @@
     </row>
     <row r="145" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B145" s="5">
         <v>45254</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F145" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="G145" s="6" t="s">
         <v>669</v>
-      </c>
-      <c r="G145" s="6" t="s">
-        <v>670</v>
       </c>
       <c r="H145" s="8">
         <v>0.24990000000000001</v>
@@ -14002,7 +14005,7 @@
         <v>31</v>
       </c>
       <c r="N145" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="O145" s="6">
         <v>44000</v>
@@ -14037,25 +14040,25 @@
     </row>
     <row r="146" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B146" s="5">
         <v>45254</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F146" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="G146" s="6" t="s">
         <v>673</v>
-      </c>
-      <c r="G146" s="6" t="s">
-        <v>674</v>
       </c>
       <c r="H146" s="8">
         <v>0.25990000000000002</v>
@@ -14076,7 +14079,7 @@
         <v>37</v>
       </c>
       <c r="N146" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O146" s="6">
         <v>53800</v>
@@ -14111,25 +14114,25 @@
     </row>
     <row r="147" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B147" s="5">
         <v>45257</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E147" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="F147" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="F147" s="6" t="s">
+      <c r="G147" s="6" t="s">
         <v>677</v>
-      </c>
-      <c r="G147" s="6" t="s">
-        <v>678</v>
       </c>
       <c r="H147" s="8">
         <v>0.28989999999999999</v>
@@ -14144,13 +14147,13 @@
         <v>29</v>
       </c>
       <c r="L147" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M147" s="6" t="s">
         <v>37</v>
       </c>
       <c r="N147" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="O147" s="6">
         <v>63000</v>
@@ -14185,25 +14188,25 @@
     </row>
     <row r="148" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B148" s="5">
         <v>45257</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E148" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="F148" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="F148" s="6" t="s">
+      <c r="G148" s="6" t="s">
         <v>681</v>
-      </c>
-      <c r="G148" s="6" t="s">
-        <v>682</v>
       </c>
       <c r="H148" s="8">
         <v>0.2999</v>
@@ -14224,7 +14227,7 @@
         <v>31</v>
       </c>
       <c r="N148" s="6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="O148" s="6">
         <v>58300</v>
@@ -14259,25 +14262,25 @@
     </row>
     <row r="149" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B149" s="5">
         <v>45260</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F149" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="G149" s="6" t="s">
         <v>685</v>
-      </c>
-      <c r="G149" s="6" t="s">
-        <v>686</v>
       </c>
       <c r="H149" s="8">
         <v>0.27989999999999998</v>
@@ -14289,7 +14292,7 @@
         <v>30400</v>
       </c>
       <c r="K149" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L149" s="6" t="s">
         <v>30</v>
@@ -14298,7 +14301,7 @@
         <v>31</v>
       </c>
       <c r="N149" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="O149" s="6">
         <v>72300</v>
@@ -14333,25 +14336,25 @@
     </row>
     <row r="150" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B150" s="5">
         <v>45275</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E150" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="F150" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="F150" s="6" t="s">
+      <c r="G150" s="6" t="s">
         <v>690</v>
-      </c>
-      <c r="G150" s="6" t="s">
-        <v>691</v>
       </c>
       <c r="H150" s="8">
         <v>0.28989999999999999</v>
@@ -14363,16 +14366,16 @@
         <v>31583</v>
       </c>
       <c r="K150" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L150" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M150" s="6" t="s">
         <v>37</v>
       </c>
       <c r="N150" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="O150" s="6">
         <v>96000</v>
@@ -14407,25 +14410,25 @@
     </row>
     <row r="151" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B151" s="5">
         <v>45278</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F151" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="G151" s="6" t="s">
         <v>693</v>
-      </c>
-      <c r="G151" s="6" t="s">
-        <v>694</v>
       </c>
       <c r="H151" s="8">
         <v>0.28989999999999999</v>
@@ -14437,7 +14440,7 @@
         <v>26344</v>
       </c>
       <c r="K151" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L151" s="6" t="s">
         <v>30</v>
@@ -14446,7 +14449,7 @@
         <v>31</v>
       </c>
       <c r="N151" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="O151" s="6">
         <v>62300</v>
@@ -14481,25 +14484,25 @@
     </row>
     <row r="152" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B152" s="5">
         <v>45271</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E152" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="F152" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="F152" s="6" t="s">
+      <c r="G152" s="6" t="s">
         <v>698</v>
-      </c>
-      <c r="G152" s="6" t="s">
-        <v>699</v>
       </c>
       <c r="H152" s="8">
         <v>0.2999</v>
@@ -14520,7 +14523,7 @@
         <v>31</v>
       </c>
       <c r="N152" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O152" s="6">
         <v>80000</v>
@@ -14555,25 +14558,25 @@
     </row>
     <row r="153" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B153" s="5">
         <v>45359</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E153" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="F153" s="6" t="s">
         <v>701</v>
       </c>
-      <c r="F153" s="6" t="s">
+      <c r="G153" s="6" t="s">
         <v>702</v>
-      </c>
-      <c r="G153" s="6" t="s">
-        <v>703</v>
       </c>
       <c r="H153" s="8">
         <v>0.25990000000000002</v>
@@ -14594,7 +14597,7 @@
         <v>31</v>
       </c>
       <c r="N153" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O153" s="6">
         <v>49000</v>
@@ -14629,25 +14632,25 @@
     </row>
     <row r="154" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B154" s="5">
         <v>45280</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F154" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="G154" s="6" t="s">
         <v>705</v>
-      </c>
-      <c r="G154" s="6" t="s">
-        <v>706</v>
       </c>
       <c r="H154" s="8">
         <v>0.28989999999999999</v>
@@ -14659,7 +14662,7 @@
         <v>30450</v>
       </c>
       <c r="K154" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L154" s="6" t="s">
         <v>30</v>
@@ -14668,7 +14671,7 @@
         <v>31</v>
       </c>
       <c r="N154" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O154" s="6">
         <v>60000</v>
@@ -14703,25 +14706,25 @@
     </row>
     <row r="155" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B155" s="5">
         <v>45281</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E155" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="F155" s="6" t="s">
         <v>708</v>
       </c>
-      <c r="F155" s="6" t="s">
+      <c r="G155" s="6" t="s">
         <v>709</v>
-      </c>
-      <c r="G155" s="6" t="s">
-        <v>710</v>
       </c>
       <c r="H155" s="8">
         <v>0.26989999999999997</v>
@@ -14742,7 +14745,7 @@
         <v>31</v>
       </c>
       <c r="N155" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O155" s="6">
         <v>69001</v>
@@ -14777,25 +14780,25 @@
     </row>
     <row r="156" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B156" s="5">
         <v>45288</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F156" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="G156" s="6" t="s">
         <v>712</v>
-      </c>
-      <c r="G156" s="6" t="s">
-        <v>713</v>
       </c>
       <c r="H156" s="8">
         <v>0.2999</v>
@@ -14816,7 +14819,7 @@
         <v>31</v>
       </c>
       <c r="N156" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O156" s="6">
         <v>72000</v>
@@ -14851,25 +14854,25 @@
     </row>
     <row r="157" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B157" s="5">
         <v>45282</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E157" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="F157" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="F157" s="6" t="s">
+      <c r="G157" s="6" t="s">
         <v>716</v>
-      </c>
-      <c r="G157" s="6" t="s">
-        <v>717</v>
       </c>
       <c r="H157" s="8">
         <v>0.27989999999999998</v>
@@ -14881,16 +14884,16 @@
         <v>29726</v>
       </c>
       <c r="K157" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L157" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M157" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N157" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="O157" s="6">
         <v>93000</v>
@@ -14925,25 +14928,25 @@
     </row>
     <row r="158" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B158" s="5">
         <v>45288</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E158" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="F158" s="6" t="s">
         <v>720</v>
       </c>
-      <c r="F158" s="6" t="s">
-        <v>721</v>
-      </c>
       <c r="G158" s="6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H158" s="8">
         <v>0.2999</v>
@@ -14964,7 +14967,7 @@
         <v>31</v>
       </c>
       <c r="N158" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="O158" s="6">
         <v>117450</v>
@@ -14999,7 +15002,7 @@
     </row>
     <row r="159" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B159" s="5">
         <v>45282</v>
@@ -15011,7 +15014,7 @@
         <v>45318</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F159" s="6" t="s">
         <v>42</v>
@@ -15032,13 +15035,13 @@
         <v>29</v>
       </c>
       <c r="L159" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M159" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N159" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O159" s="6">
         <v>55000</v>
@@ -15073,25 +15076,25 @@
     </row>
     <row r="160" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B160" s="5">
         <v>45288</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E160" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="F160" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="F160" s="6" t="s">
+      <c r="G160" s="6" t="s">
         <v>726</v>
-      </c>
-      <c r="G160" s="6" t="s">
-        <v>727</v>
       </c>
       <c r="H160" s="8">
         <v>0.2999</v>
@@ -15112,7 +15115,7 @@
         <v>31</v>
       </c>
       <c r="N160" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="O160" s="6">
         <v>32000</v>
@@ -15147,25 +15150,25 @@
     </row>
     <row r="161" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B161" s="5">
         <v>45294</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F161" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="G161" s="6" t="s">
         <v>730</v>
-      </c>
-      <c r="G161" s="6" t="s">
-        <v>731</v>
       </c>
       <c r="H161" s="8">
         <v>0.2999</v>
@@ -15180,13 +15183,13 @@
         <v>29</v>
       </c>
       <c r="L161" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M161" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N161" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O161" s="6">
         <v>90000</v>
@@ -15221,25 +15224,25 @@
     </row>
     <row r="162" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B162" s="5">
         <v>45280</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F162" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="G162" s="6" t="s">
         <v>733</v>
-      </c>
-      <c r="G162" s="6" t="s">
-        <v>734</v>
       </c>
       <c r="H162" s="8">
         <v>0.27989999999999998</v>
@@ -15254,13 +15257,13 @@
         <v>29</v>
       </c>
       <c r="L162" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M162" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N162" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="O162" s="6">
         <v>56000</v>
@@ -15295,25 +15298,25 @@
     </row>
     <row r="163" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B163" s="5">
         <v>45281</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E163" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="F163" s="6" t="s">
         <v>737</v>
       </c>
-      <c r="F163" s="6" t="s">
+      <c r="G163" s="6" t="s">
         <v>738</v>
-      </c>
-      <c r="G163" s="6" t="s">
-        <v>739</v>
       </c>
       <c r="H163" s="8">
         <v>0.2999</v>
@@ -15334,7 +15337,7 @@
         <v>31</v>
       </c>
       <c r="N163" s="6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="O163" s="6">
         <v>53700</v>
@@ -15369,25 +15372,25 @@
     </row>
     <row r="164" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B164" s="5">
         <v>45302</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E164" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="F164" s="6" t="s">
         <v>742</v>
       </c>
-      <c r="F164" s="6" t="s">
+      <c r="G164" s="6" t="s">
         <v>743</v>
-      </c>
-      <c r="G164" s="6" t="s">
-        <v>744</v>
       </c>
       <c r="H164" s="8">
         <v>0.26989999999999997</v>
@@ -15402,13 +15405,13 @@
         <v>29</v>
       </c>
       <c r="L164" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M164" s="6" t="s">
         <v>37</v>
       </c>
       <c r="N164" s="6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="O164" s="6">
         <v>35000</v>
@@ -15443,25 +15446,25 @@
     </row>
     <row r="165" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B165" s="5">
         <v>45302</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F165" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="G165" s="6" t="s">
         <v>747</v>
-      </c>
-      <c r="G165" s="6" t="s">
-        <v>748</v>
       </c>
       <c r="H165" s="8">
         <v>0.2999</v>
@@ -15473,7 +15476,7 @@
         <v>32395</v>
       </c>
       <c r="K165" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L165" s="6" t="s">
         <v>30</v>
@@ -15482,7 +15485,7 @@
         <v>31</v>
       </c>
       <c r="N165" s="6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="O165" s="6">
         <v>80500</v>
@@ -15517,25 +15520,25 @@
     </row>
     <row r="166" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B166" s="5">
         <v>45301</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E166" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="F166" s="6" t="s">
         <v>751</v>
       </c>
-      <c r="F166" s="6" t="s">
+      <c r="G166" s="6" t="s">
         <v>752</v>
-      </c>
-      <c r="G166" s="6" t="s">
-        <v>753</v>
       </c>
       <c r="H166" s="8">
         <v>0.27989999999999998</v>
@@ -15547,16 +15550,16 @@
         <v>33315</v>
       </c>
       <c r="K166" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L166" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="M166" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N166" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O166" s="6">
         <v>45000</v>
@@ -15591,25 +15594,25 @@
     </row>
     <row r="167" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B167" s="5">
         <v>45309</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F167" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="G167" s="6" t="s">
         <v>755</v>
-      </c>
-      <c r="G167" s="6" t="s">
-        <v>756</v>
       </c>
       <c r="H167" s="8">
         <v>0.27989999999999998</v>
@@ -15621,16 +15624,16 @@
         <v>37204</v>
       </c>
       <c r="K167" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L167" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="M167" s="6" t="s">
         <v>37</v>
       </c>
       <c r="N167" s="6" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="O167" s="6">
         <v>41900</v>
@@ -15665,25 +15668,25 @@
     </row>
     <row r="168" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B168" s="5">
         <v>45309</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E168" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="F168" s="6" t="s">
         <v>759</v>
       </c>
-      <c r="F168" s="6" t="s">
+      <c r="G168" s="6" t="s">
         <v>760</v>
-      </c>
-      <c r="G168" s="6" t="s">
-        <v>761</v>
       </c>
       <c r="H168" s="8">
         <v>0.28989999999999999</v>
@@ -15695,7 +15698,7 @@
         <v>34181</v>
       </c>
       <c r="K168" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L168" s="6" t="s">
         <v>30</v>
@@ -15704,7 +15707,7 @@
         <v>31</v>
       </c>
       <c r="N168" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="O168" s="6">
         <v>36700</v>
@@ -15739,25 +15742,25 @@
     </row>
     <row r="169" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B169" s="5">
         <v>45307</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F169" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="G169" s="6" t="s">
         <v>764</v>
-      </c>
-      <c r="G169" s="6" t="s">
-        <v>765</v>
       </c>
       <c r="H169" s="8">
         <v>0.2999</v>
@@ -15778,7 +15781,7 @@
         <v>31</v>
       </c>
       <c r="N169" s="6" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="O169" s="6">
         <v>92800</v>
@@ -15813,25 +15816,25 @@
     </row>
     <row r="170" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B170" s="5">
         <v>45369</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E170" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="F170" s="6" t="s">
         <v>768</v>
       </c>
-      <c r="F170" s="6" t="s">
+      <c r="G170" s="6" t="s">
         <v>769</v>
-      </c>
-      <c r="G170" s="6" t="s">
-        <v>770</v>
       </c>
       <c r="H170" s="8">
         <v>0.2999</v>
@@ -15852,7 +15855,7 @@
         <v>37</v>
       </c>
       <c r="N170" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="O170" s="6">
         <v>49000</v>
@@ -15887,25 +15890,25 @@
     </row>
     <row r="171" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B171" s="5">
         <v>45334</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E171" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="F171" s="6" t="s">
         <v>773</v>
       </c>
-      <c r="F171" s="6" t="s">
+      <c r="G171" s="6" t="s">
         <v>774</v>
-      </c>
-      <c r="G171" s="6" t="s">
-        <v>775</v>
       </c>
       <c r="H171" s="8">
         <v>0.26989999999999997</v>
@@ -15917,16 +15920,16 @@
         <v>30166</v>
       </c>
       <c r="K171" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L171" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M171" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N171" s="6" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="O171" s="6">
         <v>90200</v>
@@ -15961,25 +15964,25 @@
     </row>
     <row r="172" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B172" s="5">
         <v>45314</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E172" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="F172" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="F172" s="6" t="s">
+      <c r="G172" s="6" t="s">
         <v>779</v>
-      </c>
-      <c r="G172" s="6" t="s">
-        <v>780</v>
       </c>
       <c r="H172" s="8">
         <v>0.2999</v>
@@ -16000,7 +16003,7 @@
         <v>37</v>
       </c>
       <c r="N172" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="O172" s="6">
         <v>63000</v>
@@ -16035,25 +16038,25 @@
     </row>
     <row r="173" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B173" s="5">
         <v>45310</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F173" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="G173" s="6" t="s">
         <v>782</v>
-      </c>
-      <c r="G173" s="6" t="s">
-        <v>783</v>
       </c>
       <c r="H173" s="8">
         <v>0.25990000000000002</v>
@@ -16068,13 +16071,13 @@
         <v>29</v>
       </c>
       <c r="L173" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M173" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N173" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O173" s="6">
         <v>45800</v>
@@ -16109,25 +16112,25 @@
     </row>
     <row r="174" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B174" s="5">
         <v>45310</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E174" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="F174" s="6" t="s">
         <v>785</v>
       </c>
-      <c r="F174" s="6" t="s">
+      <c r="G174" s="6" t="s">
         <v>786</v>
-      </c>
-      <c r="G174" s="6" t="s">
-        <v>787</v>
       </c>
       <c r="H174" s="8">
         <v>0.2999</v>
@@ -16148,7 +16151,7 @@
         <v>31</v>
       </c>
       <c r="N174" s="6" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="O174" s="6">
         <v>45000</v>
@@ -16183,25 +16186,25 @@
     </row>
     <row r="175" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B175" s="5">
         <v>45316</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F175" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="G175" s="6" t="s">
         <v>790</v>
-      </c>
-      <c r="G175" s="6" t="s">
-        <v>791</v>
       </c>
       <c r="H175" s="8">
         <v>0.25990000000000002</v>
@@ -16213,16 +16216,16 @@
         <v>32144</v>
       </c>
       <c r="K175" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L175" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M175" s="6" t="s">
         <v>37</v>
       </c>
       <c r="N175" s="6" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="O175" s="6">
         <v>62200</v>
@@ -16257,25 +16260,25 @@
     </row>
     <row r="176" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B176" s="5">
         <v>45324</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E176" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="F176" s="6" t="s">
         <v>794</v>
       </c>
-      <c r="F176" s="6" t="s">
+      <c r="G176" s="6" t="s">
         <v>795</v>
-      </c>
-      <c r="G176" s="6" t="s">
-        <v>796</v>
       </c>
       <c r="H176" s="8">
         <v>0.26989999999999997</v>
@@ -16296,7 +16299,7 @@
         <v>31</v>
       </c>
       <c r="N176" s="6" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="O176" s="6">
         <v>110900</v>
@@ -16331,25 +16334,25 @@
     </row>
     <row r="177" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B177" s="5">
         <v>45334</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F177" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="G177" s="6" t="s">
         <v>799</v>
-      </c>
-      <c r="G177" s="6" t="s">
-        <v>800</v>
       </c>
       <c r="H177" s="8">
         <v>0.26989999999999997</v>
@@ -16361,16 +16364,16 @@
         <v>33959</v>
       </c>
       <c r="K177" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L177" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M177" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N177" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O177" s="6">
         <v>45000</v>
@@ -16405,25 +16408,25 @@
     </row>
     <row r="178" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B178" s="5">
         <v>45349</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F178" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="G178" s="6" t="s">
         <v>802</v>
-      </c>
-      <c r="G178" s="6" t="s">
-        <v>803</v>
       </c>
       <c r="H178" s="8">
         <v>0.24990000000000001</v>
@@ -16444,7 +16447,7 @@
         <v>31</v>
       </c>
       <c r="N178" s="6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="O178" s="6">
         <v>86400</v>
@@ -16479,25 +16482,25 @@
     </row>
     <row r="179" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B179" s="5">
         <v>45349</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E179" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="F179" s="6" t="s">
         <v>806</v>
       </c>
-      <c r="F179" s="6" t="s">
+      <c r="G179" s="6" t="s">
         <v>807</v>
-      </c>
-      <c r="G179" s="6" t="s">
-        <v>808</v>
       </c>
       <c r="H179" s="8">
         <v>0.24990000000000001</v>
@@ -16518,7 +16521,7 @@
         <v>31</v>
       </c>
       <c r="N179" s="6" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="O179" s="6">
         <v>110000</v>
@@ -16553,25 +16556,25 @@
     </row>
     <row r="180" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B180" s="5">
         <v>45355</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F180" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="G180" s="6" t="s">
         <v>811</v>
-      </c>
-      <c r="G180" s="6" t="s">
-        <v>812</v>
       </c>
       <c r="H180" s="8">
         <v>0.24990000000000001</v>
@@ -16583,16 +16586,16 @@
         <v>29461</v>
       </c>
       <c r="K180" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L180" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M180" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N180" s="6" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="O180" s="6">
         <v>43000</v>
@@ -16627,25 +16630,25 @@
     </row>
     <row r="181" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B181" s="5">
         <v>45351</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F181" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="G181" s="6" t="s">
         <v>815</v>
-      </c>
-      <c r="G181" s="6" t="s">
-        <v>816</v>
       </c>
       <c r="H181" s="8">
         <v>0.24990000000000001</v>
@@ -16657,16 +16660,16 @@
         <v>31103</v>
       </c>
       <c r="K181" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L181" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M181" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N181" s="6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="O181" s="6">
         <v>80500</v>
@@ -16701,25 +16704,25 @@
     </row>
     <row r="182" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B182" s="5">
         <v>45358</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E182" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="F182" s="6" t="s">
         <v>819</v>
       </c>
-      <c r="F182" s="6" t="s">
+      <c r="G182" s="6" t="s">
         <v>820</v>
-      </c>
-      <c r="G182" s="6" t="s">
-        <v>821</v>
       </c>
       <c r="H182" s="8">
         <v>0.27989999999999998</v>
@@ -16734,13 +16737,13 @@
         <v>29</v>
       </c>
       <c r="L182" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M182" s="6" t="s">
         <v>37</v>
       </c>
       <c r="N182" s="6" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="O182" s="6">
         <v>229000</v>
@@ -16775,25 +16778,25 @@
     </row>
     <row r="183" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B183" s="5">
         <v>45359</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E183" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="F183" s="6" t="s">
         <v>824</v>
       </c>
-      <c r="F183" s="6" t="s">
+      <c r="G183" s="6" t="s">
         <v>825</v>
-      </c>
-      <c r="G183" s="6" t="s">
-        <v>826</v>
       </c>
       <c r="H183" s="8">
         <v>0.26989999999999997</v>
@@ -16805,16 +16808,16 @@
         <v>32896</v>
       </c>
       <c r="K183" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L183" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M183" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N183" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O183" s="6">
         <v>52000</v>
@@ -16849,25 +16852,25 @@
     </row>
     <row r="184" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B184" s="5">
         <v>45366</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F184" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="G184" s="6" t="s">
         <v>828</v>
-      </c>
-      <c r="G184" s="6" t="s">
-        <v>829</v>
       </c>
       <c r="H184" s="8">
         <v>0.28989999999999999</v>
@@ -16879,7 +16882,7 @@
         <v>35746</v>
       </c>
       <c r="K184" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L184" s="6" t="s">
         <v>30</v>
@@ -16888,7 +16891,7 @@
         <v>31</v>
       </c>
       <c r="N184" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="O184" s="6">
         <v>55000</v>
@@ -16923,25 +16926,25 @@
     </row>
     <row r="185" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B185" s="5">
         <v>45373</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F185" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="G185" s="6" t="s">
         <v>831</v>
-      </c>
-      <c r="G185" s="6" t="s">
-        <v>832</v>
       </c>
       <c r="H185" s="8">
         <v>0.2999</v>
@@ -16962,7 +16965,7 @@
         <v>31</v>
       </c>
       <c r="N185" s="6" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="O185" s="6">
         <v>96300</v>
@@ -16997,25 +17000,25 @@
     </row>
     <row r="186" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B186" s="5">
         <v>45376</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E186" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="F186" s="6" t="s">
         <v>835</v>
       </c>
-      <c r="F186" s="6" t="s">
+      <c r="G186" s="6" t="s">
         <v>836</v>
-      </c>
-      <c r="G186" s="6" t="s">
-        <v>837</v>
       </c>
       <c r="H186" s="8">
         <v>0.27989999999999998</v>
@@ -17030,13 +17033,13 @@
         <v>29</v>
       </c>
       <c r="L186" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M186" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N186" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O186" s="6">
         <v>43000</v>
@@ -17071,25 +17074,25 @@
     </row>
     <row r="187" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B187" s="5">
         <v>45379</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F187" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="G187" s="6" t="s">
         <v>839</v>
-      </c>
-      <c r="G187" s="6" t="s">
-        <v>840</v>
       </c>
       <c r="H187" s="8">
         <v>0.28989999999999999</v>
@@ -17104,13 +17107,13 @@
         <v>29</v>
       </c>
       <c r="L187" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M187" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N187" s="6" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="O187" s="6">
         <v>115000</v>
@@ -17145,25 +17148,25 @@
     </row>
     <row r="188" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B188" s="5">
         <v>45411</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E188" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="F188" s="6" t="s">
         <v>842</v>
       </c>
-      <c r="F188" s="6" t="s">
+      <c r="G188" s="6" t="s">
         <v>843</v>
-      </c>
-      <c r="G188" s="6" t="s">
-        <v>844</v>
       </c>
       <c r="H188" s="8">
         <v>0.24990000000000001</v>
@@ -17175,7 +17178,7 @@
         <v>25016</v>
       </c>
       <c r="K188" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L188" s="6" t="s">
         <v>30</v>
@@ -17184,7 +17187,7 @@
         <v>31</v>
       </c>
       <c r="N188" s="6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="O188" s="6">
         <v>117000</v>
@@ -17219,25 +17222,25 @@
     </row>
     <row r="189" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B189" s="5">
         <v>45398</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E189" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="F189" s="6" t="s">
         <v>847</v>
       </c>
-      <c r="F189" s="6" t="s">
+      <c r="G189" s="6" t="s">
         <v>848</v>
-      </c>
-      <c r="G189" s="6" t="s">
-        <v>849</v>
       </c>
       <c r="H189" s="8">
         <v>0.2999</v>
@@ -17249,16 +17252,16 @@
         <v>33292</v>
       </c>
       <c r="K189" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L189" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M189" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N189" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O189" s="6">
         <v>85000</v>
@@ -17293,25 +17296,25 @@
     </row>
     <row r="190" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B190" s="5">
         <v>45400</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F190" s="6" t="s">
+        <v>850</v>
+      </c>
+      <c r="G190" s="6" t="s">
         <v>851</v>
-      </c>
-      <c r="G190" s="6" t="s">
-        <v>852</v>
       </c>
       <c r="H190" s="8">
         <v>0.28989999999999999</v>
@@ -17326,13 +17329,13 @@
         <v>29</v>
       </c>
       <c r="L190" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M190" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N190" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O190" s="6">
         <v>55000</v>
@@ -17367,25 +17370,25 @@
     </row>
     <row r="191" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B191" s="5">
         <v>45411</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F191" s="6" t="s">
+        <v>853</v>
+      </c>
+      <c r="G191" s="6" t="s">
         <v>854</v>
-      </c>
-      <c r="G191" s="6" t="s">
-        <v>855</v>
       </c>
       <c r="H191" s="8">
         <v>0.26989999999999997</v>
@@ -17406,7 +17409,7 @@
         <v>31</v>
       </c>
       <c r="N191" s="6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="O191" s="6">
         <v>62400</v>
@@ -17441,25 +17444,25 @@
     </row>
     <row r="192" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B192" s="5">
         <v>45411</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F192" s="6" t="s">
+        <v>857</v>
+      </c>
+      <c r="G192" s="6" t="s">
         <v>858</v>
-      </c>
-      <c r="G192" s="6" t="s">
-        <v>859</v>
       </c>
       <c r="H192" s="8">
         <v>0.28989999999999999</v>
@@ -17480,7 +17483,7 @@
         <v>37</v>
       </c>
       <c r="N192" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="O192" s="6">
         <v>48000</v>
@@ -17515,25 +17518,25 @@
     </row>
     <row r="193" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B193" s="5">
         <v>45411</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E193" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="F193" s="6" t="s">
         <v>861</v>
       </c>
-      <c r="F193" s="6" t="s">
+      <c r="G193" s="6" t="s">
         <v>862</v>
-      </c>
-      <c r="G193" s="6" t="s">
-        <v>863</v>
       </c>
       <c r="H193" s="8">
         <v>0.28989999999999999</v>
@@ -17554,7 +17557,7 @@
         <v>31</v>
       </c>
       <c r="N193" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O193" s="6">
         <v>65000</v>
@@ -17589,25 +17592,25 @@
     </row>
     <row r="194" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B194" s="5">
         <v>45411</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E194" s="6" t="s">
+        <v>864</v>
+      </c>
+      <c r="F194" s="6" t="s">
         <v>865</v>
       </c>
-      <c r="F194" s="6" t="s">
+      <c r="G194" s="6" t="s">
         <v>866</v>
-      </c>
-      <c r="G194" s="6" t="s">
-        <v>867</v>
       </c>
       <c r="H194" s="8">
         <v>0.24990000000000001</v>
@@ -17619,16 +17622,16 @@
         <v>31644</v>
       </c>
       <c r="K194" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L194" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M194" s="6" t="s">
         <v>37</v>
       </c>
       <c r="N194" s="6" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="O194" s="6">
         <v>95000</v>
@@ -17663,25 +17666,25 @@
     </row>
     <row r="195" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B195" s="5">
         <v>45412</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E195" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="F195" s="6" t="s">
         <v>870</v>
       </c>
-      <c r="F195" s="6" t="s">
+      <c r="G195" s="6" t="s">
         <v>871</v>
-      </c>
-      <c r="G195" s="6" t="s">
-        <v>872</v>
       </c>
       <c r="H195" s="8">
         <v>0.28989999999999999</v>
@@ -17702,7 +17705,7 @@
         <v>31</v>
       </c>
       <c r="N195" s="6" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="O195" s="6">
         <v>87800</v>
@@ -17737,25 +17740,25 @@
     </row>
     <row r="196" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B196" s="5">
         <v>45422</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E196" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="F196" s="6" t="s">
         <v>875</v>
       </c>
-      <c r="F196" s="6" t="s">
+      <c r="G196" s="6" t="s">
         <v>876</v>
-      </c>
-      <c r="G196" s="6" t="s">
-        <v>877</v>
       </c>
       <c r="H196" s="8">
         <v>0.24990000000000001</v>
@@ -17767,16 +17770,16 @@
         <v>32731</v>
       </c>
       <c r="K196" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L196" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M196" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N196" s="6" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="O196" s="6">
         <v>111000</v>
@@ -17811,25 +17814,25 @@
     </row>
     <row r="197" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B197" s="5">
         <v>45420</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E197" s="6" t="s">
+        <v>879</v>
+      </c>
+      <c r="F197" s="6" t="s">
         <v>880</v>
       </c>
-      <c r="F197" s="6" t="s">
+      <c r="G197" s="6" t="s">
         <v>881</v>
-      </c>
-      <c r="G197" s="6" t="s">
-        <v>882</v>
       </c>
       <c r="H197" s="8">
         <v>0.27989999999999998</v>
@@ -17841,16 +17844,16 @@
         <v>27784</v>
       </c>
       <c r="K197" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L197" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M197" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N197" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="O197" s="6">
         <v>105000</v>
@@ -17885,25 +17888,25 @@
     </row>
     <row r="198" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B198" s="5">
         <v>45422</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F198" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="G198" s="6" t="s">
         <v>885</v>
-      </c>
-      <c r="G198" s="6" t="s">
-        <v>886</v>
       </c>
       <c r="H198" s="8">
         <v>0.27989999999999998</v>
@@ -17924,7 +17927,7 @@
         <v>31</v>
       </c>
       <c r="N198" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O198" s="6">
         <v>52000</v>
@@ -17959,25 +17962,25 @@
     </row>
     <row r="199" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B199" s="5">
         <v>45439</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E199" s="6" t="s">
+        <v>887</v>
+      </c>
+      <c r="F199" s="6" t="s">
         <v>888</v>
       </c>
-      <c r="F199" s="6" t="s">
+      <c r="G199" s="6" t="s">
         <v>889</v>
-      </c>
-      <c r="G199" s="6" t="s">
-        <v>890</v>
       </c>
       <c r="H199" s="8">
         <v>0.26989999999999997</v>
@@ -17992,13 +17995,13 @@
         <v>29</v>
       </c>
       <c r="L199" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M199" s="6" t="s">
         <v>37</v>
       </c>
       <c r="N199" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O199" s="6">
         <v>52000</v>
@@ -18033,25 +18036,25 @@
     </row>
     <row r="200" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B200" s="5">
         <v>45440</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E200" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="F200" s="6" t="s">
         <v>892</v>
       </c>
-      <c r="F200" s="6" t="s">
+      <c r="G200" s="6" t="s">
         <v>893</v>
-      </c>
-      <c r="G200" s="6" t="s">
-        <v>894</v>
       </c>
       <c r="H200" s="8">
         <v>0.26989999999999997</v>
@@ -18063,16 +18066,16 @@
         <v>36186</v>
       </c>
       <c r="K200" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L200" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M200" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N200" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="O200" s="6">
         <v>48000</v>
@@ -18107,25 +18110,25 @@
     </row>
     <row r="201" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B201" s="5">
         <v>45441</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E201" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="F201" s="6" t="s">
         <v>896</v>
       </c>
-      <c r="F201" s="6" t="s">
+      <c r="G201" s="6" t="s">
         <v>897</v>
-      </c>
-      <c r="G201" s="6" t="s">
-        <v>898</v>
       </c>
       <c r="H201" s="8">
         <v>0.2999</v>
@@ -18137,16 +18140,16 @@
         <v>28323</v>
       </c>
       <c r="K201" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L201" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M201" s="6" t="s">
         <v>31</v>
       </c>
       <c r="N201" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="O201" s="6">
         <v>92100</v>
@@ -18180,6 +18183,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:X201" xr:uid="{C6A90ED0-D8FD-834F-AB0D-725977EFA38E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18220,70 +18224,70 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>900</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>901</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>902</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="6" t="s">
         <v>903</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>904</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="12" t="s">
         <v>905</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>906</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="6" t="s">
         <v>907</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>908</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="12" t="s">
         <v>909</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>910</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="6" t="s">
         <v>911</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>912</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>913</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>914</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="13" t="s">
         <v>915</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>916</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>917</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>918</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>919</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>920</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>921</v>
       </c>
     </row>
   </sheetData>
@@ -18295,9 +18299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CFEDFEC-A94D-404B-BD1D-83F92F749248}">
   <dimension ref="A1:J1624"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -18306,31 +18308,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>921</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>922</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>923</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>924</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>925</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>926</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>927</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>929</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
